--- a/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
+++ b/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
@@ -451,715 +451,965 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>136.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5374</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>001705</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>泓德战略转型股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>91.93</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.34</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5754</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9963</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7451</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6141</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4439</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3599</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003458</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实稳宏债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003459</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实稳宏债券C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>007046</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>方正富邦创新动力混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>94.39</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>5.35</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>530016</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信恒稳价值混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>78.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001256</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泓德优选成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009476</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信食品饮料行业股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160605</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华中国50混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>84.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000326</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方中小盘成长股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.62</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>730001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>方正富邦创新动力混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001695</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泓德泓业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>70.99</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005014</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰康景泰回报混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>35.55</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005015</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>泰康景泰回报混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>35.55</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003458</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实稳宏债券A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003459</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实稳宏债券C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002378</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信弘利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002808</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>泓德优势领航灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>92.02</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002846</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>泓德泓华灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009015</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泓德睿享一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>29.64</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009016</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>泓德睿享一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>29.64</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004986</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华策略回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>86.58</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003378</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>泰康策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006608</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>泓德研究优选混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009014</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>泓德睿泽混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>91.08</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009264</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>泓德瑞兴三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>000327</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>南方潜力新蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1169,7 +1419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1190,15 +1440,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009015</t>
+          <t>001705</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泓德睿享一年持有期混合A</t>
+          <t>泓德战略转型股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.43</t>
+          <t>42.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0400</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009016</t>
+          <t>160605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泓德睿享一年持有期混合C</t>
+          <t>鹏华中国50混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.43</t>
+          <t>18.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001705</t>
+          <t>001695</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泓德战略转型股票</t>
+          <t>泓德泓业灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>19.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004986</t>
+          <t>002846</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华策略回报灵活配置混合</t>
+          <t>泓德泓华灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000547</t>
+          <t>530005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信健康民生混合</t>
+          <t>建信优化配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>73.81</t>
+          <t>17.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>56.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000056</t>
+          <t>004986</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信消费升级混合</t>
+          <t>鹏华策略回报灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000326</t>
+          <t>009015</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方中小盘成长股票</t>
+          <t>泓德睿享一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.93</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000327</t>
+          <t>002085</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方潜力新蓝筹混合</t>
+          <t>长盛互联网+主题灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.03</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006199</t>
+          <t>000547</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长盛同锦研究精选混合</t>
+          <t>建信健康民生混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>006199</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>长盛同锦研究精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>001892</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>长盛新兴成长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519034</t>
+          <t>000326</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强A</t>
+          <t>南方中小盘成长股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009004</t>
+          <t>000327</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强C</t>
+          <t>南方潜力新蓝筹混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001695</t>
+          <t>009726</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>泓德泓业灵活配置混合</t>
+          <t>招商中证500等权重指数增强A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>71.49</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001892</t>
+          <t>002573</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长盛新兴成长主题灵活配置混合</t>
+          <t>建信汇利灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>60.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>530005</t>
+          <t>000056</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>建信优化配置混合</t>
+          <t>建信消费升级混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>56.37</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>61.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>160605</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鹏华中国50混合</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>82.44</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002085</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>长盛互联网+主题灵活配置混合</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90.55</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>166107</t>
+          <t>519034</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>信达澳银量化多因子混合（LOF）A</t>
+          <t>海富通中证500指数增强A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>166108</t>
+          <t>009727</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>信达澳银量化多因子混合（LOF）C</t>
+          <t>招商中证500等权重指数增强C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002573</t>
+          <t>009486</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>建信汇利灵活配置混合</t>
+          <t>光大保德信瑞和混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>60.52</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>63.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002846</t>
+          <t>009487</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>泓德泓华灵活配置混合</t>
+          <t>光大保德信瑞和混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>63.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009486</t>
+          <t>166107</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>光大保德信瑞和混合A</t>
+          <t>信达澳银量化多因子混合（LOF）A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>63.88</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009487</t>
+          <t>009004</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>光大保德信瑞和混合C</t>
+          <t>海富通中证500指数增强C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>63.88</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009726</t>
+          <t>009016</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强A</t>
+          <t>泓德睿享一年持有期混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009727</t>
+          <t>166108</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强C</t>
+          <t>信达澳银量化多因子混合（LOF）C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
+++ b/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2455,4 +2456,1578 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>697.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.5800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4172</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001357</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001296</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城转型成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>53.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001376</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
+++ b/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4030,4 +4031,2564 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>928.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>30.2838</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1049</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4126</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4169</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9309</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8197</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城品牌优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7184</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6497</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5780</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5080</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3684</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3341</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2908</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>65.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011014</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>50.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>72.46</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
+++ b/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6591,4 +6592,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>47.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
+++ b/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6600,7 +6601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6611,17 +6612,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6631,14 +6652,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>66</v>
-      </c>
-      <c r="D2" t="n">
-        <v>47.73</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>776.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22.1231</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6647,14 +6690,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.86</v>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6663,14 +6728,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.79</v>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2796</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6679,13 +6766,1063 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5454</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3339</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2415</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011014</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>66</v>
+      </c>
+      <c r="D3" t="n">
+        <v>47.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>24</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>16.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
+++ b/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7721,7 +7722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7732,17 +7733,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7752,14 +7773,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.23</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>688.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.8410</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -7768,14 +7811,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>66</v>
-      </c>
-      <c r="D3" t="n">
-        <v>47.73</v>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8786</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7784,14 +7849,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.86</v>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7800,14 +7887,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.79</v>
+          <t>011013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -7816,13 +7925,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011014</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>24</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>16.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
+++ b/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8272,7 +8273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8283,17 +8284,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8303,14 +8324,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.52</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>685.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.9533</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -8319,14 +8362,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.23</v>
+          <t>012414</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8116</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -8335,14 +8400,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>66</v>
-      </c>
-      <c r="D4" t="n">
-        <v>47.73</v>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9870</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -8351,14 +8438,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.86</v>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5862</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -8367,14 +8476,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>26</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.79</v>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4812</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -8383,13 +8514,829 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4461</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001357</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>49.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012615</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004486</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实稳怡债券</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013152</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001376</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>49.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>66</v>
+      </c>
+      <c r="D5" t="n">
+        <v>47.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>24</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>16.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
+++ b/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>19.72</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>19.52</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>28.23</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>47.73</v>
+        <v>28.23</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D6" t="n">
-        <v>20.86</v>
+        <v>47.73</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>4.79</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>24</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>16.4</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015741</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012615</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015742</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1529,7 +1868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2079,7 +2418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3199,7 +3538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5759,7 +6098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7333,7 +7672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8377,7 +8716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
+++ b/数据整理/stocks/A股/上证主板/600779-水井坊.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>19.72</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>19.52</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>28.23</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>47.73</v>
+        <v>28.23</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D7" t="n">
-        <v>20.86</v>
+        <v>47.73</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>4.79</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,998 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>24</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>16.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>136.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5374</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5754</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9963</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7451</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6141</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4439</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3599</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003458</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实稳宏债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003459</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实稳宏债券C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1602,1122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011781</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德慧享混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015741</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015742</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013152</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004801</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008162</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004802</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011782</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泓德慧享混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +3039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1868,7 +3969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2418,7 +4519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3538,7 +5639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6098,7 +8199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7672,7 +9773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8714,972 +10815,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009014</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泓德睿泽混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>136.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.5374</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009264</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泓德瑞兴三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>73.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.6737</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001705</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泓德战略转型股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>41.47</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7998</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001256</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泓德优选成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>37.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.5754</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160605</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华中国50混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>19.89</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.54</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.5116</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003378</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰康策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>24.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9963</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006608</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泓德研究优选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>18.49</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7451</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001695</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泓德泓业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20.96</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>70.99</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6141</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002808</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泓德优势领航灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4439</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002846</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泓德泓华灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3599</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009476</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>建信食品饮料行业股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3074</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004986</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华策略回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.58</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2214</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005014</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰康景泰回报混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>35.55</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2073</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009015</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泓德睿享一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>29.64</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1133</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000326</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方中小盘成长股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.62</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0734</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000327</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方潜力新蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0561</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003458</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实稳宏债券A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0500</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002378</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信弘利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0498</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005015</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>泰康景泰回报混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>35.55</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>530016</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>建信恒稳价值混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>78.96</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>730001</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>方正富邦创新动力混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003459</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>嘉实稳宏债券C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007046</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>方正富邦创新动力混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009016</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>泓德睿享一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>29.64</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>